--- a/DOC/开发计划/DMS开发计划-12.12-APP.xlsx
+++ b/DOC/开发计划/DMS开发计划-12.12-APP.xlsx
@@ -734,8 +734,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:XDT31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1023,7 +1023,9 @@
       <c r="D17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="6"/>
+      <c r="E17" s="6">
+        <v>43449</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
@@ -1036,7 +1038,9 @@
       <c r="D18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="6">
+        <v>43452</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
@@ -1049,7 +1053,9 @@
       <c r="D19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="6"/>
+      <c r="E19" s="6">
+        <v>43453</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
@@ -1062,7 +1068,9 @@
       <c r="D20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="6"/>
+      <c r="E20" s="6">
+        <v>43453</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
@@ -1075,7 +1083,9 @@
       <c r="D21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="6"/>
+      <c r="E21" s="6">
+        <v>43454</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
@@ -1088,7 +1098,9 @@
       <c r="D22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="6"/>
+      <c r="E22" s="6">
+        <v>43454</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
@@ -1101,7 +1113,9 @@
       <c r="D23" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="6"/>
+      <c r="E23" s="6">
+        <v>43455</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
@@ -1114,7 +1128,9 @@
       <c r="D24" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="6"/>
+      <c r="E24" s="6">
+        <v>43456</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
@@ -1127,7 +1143,9 @@
       <c r="D25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="6"/>
+      <c r="E25" s="6">
+        <v>43457</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>

--- a/DOC/开发计划/DMS开发计划-12.12-APP.xlsx
+++ b/DOC/开发计划/DMS开发计划-12.12-APP.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="APP开发计划" sheetId="12" r:id="rId1"/>
+    <sheet name="PC开发计划" sheetId="13" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
   <si>
     <t>功能模块</t>
   </si>
@@ -198,19 +199,107 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>扫一扫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开单导航</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>本车导航</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>首页</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>扫一扫</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开单导航</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>本车导航</t>
+    <t>后台</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式环境二级域名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店项目数据初始化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算中心appid,appkey</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tab页效果修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>toolbar效果修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表-采购</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表-营业</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表-车间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表-库存</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表-财务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁龄勃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗贵成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊鹰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工提成查询</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工提成汇总，员工提成明细</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算方式明确</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单汇总查询</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合，洗美，理赔，保险，销售，退货开单数量，施工数量，结算数量，结算金额</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -734,8 +823,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:XDT31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -771,12 +860,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="16" customFormat="1" ht="24.75" customHeight="1">
+    <row r="2" spans="1:8" s="16" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>49</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13" t="s">
@@ -789,10 +878,10 @@
     </row>
     <row r="3" spans="1:8" s="16" customFormat="1" ht="24.75" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13" t="s">
@@ -1253,4 +1342,315 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:XDT23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="18.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="4" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="3" customWidth="1"/>
+    <col min="8" max="16348" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="39.6" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A2" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A3" s="19"/>
+      <c r="B3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A4" s="19"/>
+      <c r="B4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A6" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A7" s="20"/>
+      <c r="B7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A8" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="36">
+      <c r="A9" s="19"/>
+      <c r="B9" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A10" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A11" s="17"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A12" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A13" s="17"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A14" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A15" s="17"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A16" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A17" s="17"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A18" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A19" s="19"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A20" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A21" s="17"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A22" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A23" s="17"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A18:A19"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/DOC/开发计划/DMS开发计划-12.12-APP.xlsx
+++ b/DOC/开发计划/DMS开发计划-12.12-APP.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
   <si>
     <t>功能模块</t>
   </si>
@@ -300,6 +300,18 @@
   </si>
   <si>
     <t>综合，洗美，理赔，保险，销售，退货开单数量，施工数量，结算数量，结算金额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存分布查询</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁龄勃</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -446,7 +458,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -497,6 +509,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -890,12 +905,12 @@
       <c r="E3" s="14"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="16" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>47</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -910,10 +925,10 @@
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
-      <c r="H4" s="22"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:8" s="16" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="13" t="s">
         <v>8</v>
       </c>
@@ -926,10 +941,10 @@
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
-      <c r="H5" s="22"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" s="16" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="13" t="s">
         <v>9</v>
       </c>
@@ -942,10 +957,10 @@
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
-      <c r="H6" s="22"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:8" s="16" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
@@ -958,10 +973,10 @@
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="22"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
@@ -976,7 +991,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
@@ -991,7 +1006,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1008,7 +1023,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:8" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
@@ -1023,7 +1038,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
@@ -1038,7 +1053,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="7" t="s">
         <v>17</v>
       </c>
@@ -1053,7 +1068,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="7" t="s">
         <v>18</v>
       </c>
@@ -1102,7 +1117,7 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -1119,7 +1134,7 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="19"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="7" t="s">
         <v>32</v>
       </c>
@@ -1134,7 +1149,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="19"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="7" t="s">
         <v>33</v>
       </c>
@@ -1149,7 +1164,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="19"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="7" t="s">
         <v>34</v>
       </c>
@@ -1164,7 +1179,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="19"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="7" t="s">
         <v>35</v>
       </c>
@@ -1179,7 +1194,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="19"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="7" t="s">
         <v>36</v>
       </c>
@@ -1194,7 +1209,7 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="19"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="7" t="s">
         <v>37</v>
       </c>
@@ -1209,7 +1224,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="19"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="7" t="s">
         <v>38</v>
       </c>
@@ -1224,7 +1239,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="20"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="7" t="s">
         <v>39</v>
       </c>
@@ -1239,7 +1254,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -1256,7 +1271,7 @@
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="17"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="7" t="s">
         <v>25</v>
       </c>
@@ -1271,7 +1286,7 @@
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="17"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="7" t="s">
         <v>26</v>
       </c>
@@ -1286,7 +1301,7 @@
       <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="17"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="7" t="s">
         <v>27</v>
       </c>
@@ -1301,7 +1316,7 @@
       <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="17"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="7" t="s">
         <v>28</v>
       </c>
@@ -1316,7 +1331,7 @@
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="17"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="7" t="s">
         <v>29</v>
       </c>
@@ -1347,10 +1362,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:XDT23"/>
+  <dimension ref="A1:XDT24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1387,7 +1402,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1402,7 +1417,7 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="7" t="s">
         <v>54</v>
       </c>
@@ -1415,7 +1430,7 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="7" t="s">
         <v>71</v>
       </c>
@@ -1428,7 +1443,7 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="7" t="s">
         <v>55</v>
       </c>
@@ -1441,7 +1456,7 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1456,7 +1471,7 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="7" t="s">
         <v>57</v>
       </c>
@@ -1469,46 +1484,52 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="18" t="s">
-        <v>59</v>
+      <c r="A8" s="17" t="s">
+        <v>74</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>75</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="36">
-      <c r="A9" s="19"/>
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A9" s="19" t="s">
+        <v>59</v>
+      </c>
       <c r="B9" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="6"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="36">
+      <c r="A10" s="20"/>
+      <c r="B10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="D10" s="7"/>
       <c r="E10" s="6"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="17"/>
+      <c r="A11" s="18" t="s">
+        <v>60</v>
+      </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1517,9 +1538,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="17" t="s">
-        <v>58</v>
-      </c>
+      <c r="A12" s="18"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1528,7 +1547,9 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18" t="s">
+        <v>58</v>
+      </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1537,9 +1558,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="17" t="s">
-        <v>61</v>
-      </c>
+      <c r="A14" s="18"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1548,7 +1567,9 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="17"/>
+      <c r="A15" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1557,9 +1578,7 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="17" t="s">
-        <v>62</v>
-      </c>
+      <c r="A16" s="18"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1568,7 +1587,9 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="17"/>
+      <c r="A17" s="18" t="s">
+        <v>62</v>
+      </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1577,9 +1598,7 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="18" t="s">
-        <v>66</v>
-      </c>
+      <c r="A18" s="18"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1588,7 +1607,9 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="19"/>
+      <c r="A19" s="19" t="s">
+        <v>66</v>
+      </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1597,9 +1618,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="17" t="s">
-        <v>67</v>
-      </c>
+      <c r="A20" s="20"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1608,7 +1627,9 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="17"/>
+      <c r="A21" s="18" t="s">
+        <v>67</v>
+      </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1617,18 +1638,18 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="17" t="s">
-        <v>68</v>
-      </c>
+      <c r="A22" s="18"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="6"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="11"/>
+      <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="17"/>
+      <c r="A23" s="18" t="s">
+        <v>68</v>
+      </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1636,18 +1657,27 @@
       <c r="F23" s="1"/>
       <c r="G23" s="11"/>
     </row>
+    <row r="24" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A24" s="18"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/开发计划/DMS开发计划-12.12-APP.xlsx
+++ b/DOC/开发计划/DMS开发计划-12.12-APP.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
   <si>
     <t>功能模块</t>
   </si>
@@ -312,6 +312,10 @@
   </si>
   <si>
     <t>丁龄勃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单号的生成规则</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1362,10 +1366,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:XDT24"/>
+  <dimension ref="A1:XDT25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1445,35 +1449,33 @@
     <row r="5" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A5" s="20"/>
       <c r="B5" s="7" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
-        <v>64</v>
-      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="6"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="19" t="s">
-        <v>51</v>
-      </c>
+      <c r="A6" s="20"/>
       <c r="B6" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="21"/>
+      <c r="A7" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="B7" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
@@ -1484,61 +1486,65 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="17" t="s">
-        <v>74</v>
-      </c>
+      <c r="A8" s="21"/>
       <c r="B8" s="7" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="19" t="s">
-        <v>59</v>
+      <c r="A9" s="17" t="s">
+        <v>74</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>75</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="E9" s="6"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="36">
-      <c r="A10" s="20"/>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A10" s="19" t="s">
+        <v>59</v>
+      </c>
       <c r="B10" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="6"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="36">
+      <c r="A11" s="20"/>
+      <c r="B11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="D11" s="7"/>
       <c r="E11" s="6"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="18"/>
+      <c r="A12" s="18" t="s">
+        <v>60</v>
+      </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1547,9 +1553,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A13" s="18" t="s">
-        <v>58</v>
-      </c>
+      <c r="A13" s="18"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1558,7 +1562,9 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="18"/>
+      <c r="A14" s="18" t="s">
+        <v>58</v>
+      </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1567,9 +1573,7 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="18" t="s">
-        <v>61</v>
-      </c>
+      <c r="A15" s="18"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1578,7 +1582,9 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="18"/>
+      <c r="A16" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1587,9 +1593,7 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="18" t="s">
-        <v>62</v>
-      </c>
+      <c r="A17" s="18"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1598,7 +1602,9 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="18"/>
+      <c r="A18" s="18" t="s">
+        <v>62</v>
+      </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1607,9 +1613,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="19" t="s">
-        <v>66</v>
-      </c>
+      <c r="A19" s="18"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1618,7 +1622,9 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="20"/>
+      <c r="A20" s="19" t="s">
+        <v>66</v>
+      </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1627,9 +1633,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="18" t="s">
-        <v>67</v>
-      </c>
+      <c r="A21" s="20"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1638,7 +1642,9 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="18"/>
+      <c r="A22" s="18" t="s">
+        <v>67</v>
+      </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1647,18 +1653,18 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="18" t="s">
-        <v>68</v>
-      </c>
+      <c r="A23" s="18"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="6"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="11"/>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="18"/>
+      <c r="A24" s="18" t="s">
+        <v>68</v>
+      </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1666,18 +1672,27 @@
       <c r="F24" s="1"/>
       <c r="G24" s="11"/>
     </row>
+    <row r="25" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A25" s="18"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/开发计划/DMS开发计划-12.12-APP.xlsx
+++ b/DOC/开发计划/DMS开发计划-12.12-APP.xlsx
@@ -9,13 +9,15 @@
   <sheets>
     <sheet name="APP开发计划" sheetId="12" r:id="rId1"/>
     <sheet name="PC开发计划" sheetId="13" r:id="rId2"/>
+    <sheet name="PC开发-客户" sheetId="16" r:id="rId3"/>
+    <sheet name="PC开发-报表" sheetId="14" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="200">
   <si>
     <t>功能模块</t>
   </si>
@@ -227,10 +229,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>结算中心appid,appkey</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>tab页效果修改</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -239,26 +237,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>报表-采购</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表-营业</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表-车间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表-库存</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表-财务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>丁龄勃</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -271,18 +249,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>客户</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>员工提成查询</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -307,15 +273,455 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>库存分布查询</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>丁龄勃</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>电话销售</t>
+  </si>
+  <si>
+    <t>电话销售</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户服务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准营销</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信平台</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客服营销</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料管理</t>
+  </si>
+  <si>
+    <t>业绩录入</t>
+  </si>
+  <si>
+    <t>业绩审核</t>
+  </si>
+  <si>
+    <t>客户回访</t>
+  </si>
+  <si>
+    <t>流失回访</t>
+  </si>
+  <si>
+    <t>保养提醒</t>
+  </si>
+  <si>
+    <t>特别关怀</t>
+  </si>
+  <si>
+    <t>点评管理</t>
+  </si>
+  <si>
+    <t>客户群发</t>
+  </si>
+  <si>
+    <t>关注用户</t>
+  </si>
+  <si>
+    <t>绑定用户</t>
+  </si>
+  <si>
+    <t>分销设置</t>
+  </si>
+  <si>
+    <t>分销商管理</t>
+  </si>
+  <si>
+    <t>业务订单管理</t>
+  </si>
+  <si>
+    <t>积分兑换</t>
+  </si>
+  <si>
+    <t>菜单设置</t>
+  </si>
+  <si>
+    <t>评价管理</t>
+  </si>
+  <si>
+    <t>推送模板</t>
+  </si>
+  <si>
+    <t>推送任务</t>
+  </si>
+  <si>
+    <t>顶部图片</t>
+  </si>
+  <si>
+    <t>内容分类</t>
+  </si>
+  <si>
+    <t>内容列表</t>
+  </si>
+  <si>
+    <t>关键字回复</t>
+  </si>
+  <si>
+    <t>关注回复</t>
+  </si>
+  <si>
+    <t>微信手动派券</t>
+  </si>
+  <si>
+    <t>微信自动派券</t>
+  </si>
+  <si>
+    <t>优惠券管理</t>
+  </si>
+  <si>
+    <t>优惠券列表</t>
+  </si>
+  <si>
+    <t>推文营销</t>
+  </si>
+  <si>
+    <t>短信营销</t>
+  </si>
+  <si>
+    <t>意向管理</t>
+  </si>
+  <si>
+    <t>活动营销</t>
+  </si>
+  <si>
+    <t>精准抓客</t>
+  </si>
+  <si>
+    <t>我的计划</t>
+  </si>
+  <si>
+    <t>近期对话</t>
+  </si>
+  <si>
+    <t>客户在哪</t>
+  </si>
+  <si>
+    <t>营销雷达</t>
+  </si>
+  <si>
+    <t>智能短信</t>
+  </si>
+  <si>
+    <t>短信触达</t>
+  </si>
+  <si>
+    <t>服务培训</t>
+  </si>
+  <si>
+    <t>营业报表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务报表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购报表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存报表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>车间报表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户报表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合开单查询</t>
+  </si>
+  <si>
+    <t>洗车开单查询</t>
+  </si>
+  <si>
+    <t>理赔开单查询</t>
+  </si>
+  <si>
+    <t>保险开单查询</t>
+  </si>
+  <si>
+    <t>销售开单查询</t>
+  </si>
+  <si>
+    <t>退货开单查询</t>
+  </si>
+  <si>
+    <t>服务顾问业绩报表</t>
+  </si>
+  <si>
+    <t>充值办卡统计</t>
+  </si>
+  <si>
+    <t>零售业务统计分析</t>
+  </si>
+  <si>
+    <t>账户余额表</t>
+  </si>
+  <si>
+    <t>账户明细表</t>
+  </si>
+  <si>
+    <t>收款明细</t>
+  </si>
+  <si>
+    <t>付款明细</t>
+  </si>
+  <si>
+    <t>供应商欠款明细</t>
+  </si>
+  <si>
+    <t>其他收支明细</t>
+  </si>
+  <si>
+    <t>结算账户余额表</t>
+  </si>
+  <si>
+    <t>经营收支统计汇总表</t>
+  </si>
+  <si>
+    <t>采购订单明细</t>
+  </si>
+  <si>
+    <t>采购入库明细</t>
+  </si>
+  <si>
+    <t>采购退货明细</t>
+  </si>
+  <si>
+    <t>品牌采购分析</t>
+  </si>
+  <si>
+    <t>配件采购分析</t>
+  </si>
+  <si>
+    <t>配件类型采购分析</t>
+  </si>
+  <si>
+    <t>供应商采购分析</t>
+  </si>
+  <si>
+    <t>采购排行</t>
+  </si>
+  <si>
+    <t>移仓单明细</t>
+  </si>
+  <si>
+    <t>盘点单明细</t>
+  </si>
+  <si>
+    <t>进销存明细</t>
+  </si>
+  <si>
+    <t>进销存报表</t>
+  </si>
+  <si>
+    <t>配件维修汇总</t>
+  </si>
+  <si>
+    <t>分仓进销存明细</t>
+  </si>
+  <si>
+    <t>分仓进销存报表</t>
+  </si>
+  <si>
+    <t>销售出库明细</t>
+  </si>
+  <si>
+    <t xml:space="preserve">退货归库查询 </t>
+  </si>
+  <si>
+    <t>库存周转汇总</t>
+  </si>
+  <si>
+    <t>库存周转明细</t>
+  </si>
+  <si>
+    <t>滞销产品统计</t>
+  </si>
+  <si>
+    <t>维修出库明细</t>
+  </si>
+  <si>
+    <t>维修归库明细</t>
+  </si>
+  <si>
+    <t>维修提成明细</t>
+  </si>
+  <si>
+    <t>施工项目明细</t>
+  </si>
+  <si>
+    <t>施工项目汇总</t>
+  </si>
+  <si>
+    <t>服务号基础信息；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统业务功能测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统压力测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片上传接口开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>单号的生成规则</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户模块APP相关接口开发，大概10个</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器环境监控eostools</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI坐席</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈系统</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户标签</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售机会</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈提交</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈处理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算中心appid,appkey，结算中心对接</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>营销活动：抽奖、吹价、加机油、活动、优惠券、有奖问答、投票</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信后台：</t>
+  </si>
+  <si>
+    <t>微信后台</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号设置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微官网设置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定用户管理、粉丝管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>素材管理：微信图文</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>营销活动管理：抽奖、吹价、加机油、活动、优惠券、有奖问答、投票</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购平台-库存对接</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购平台-采购订单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约服务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡券领取</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务评价</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息通知</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信服务号（C端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险查询</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微官网</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险报价</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>违章查询</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户中心-车辆档案、服务记录、优惠券、会员卡、积分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微商城</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -462,7 +868,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -513,9 +919,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -842,8 +1245,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:XDT31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -909,12 +1312,12 @@
       <c r="E3" s="14"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="21" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="16" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>47</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -929,10 +1332,10 @@
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
-      <c r="H4" s="23"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:8" s="16" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="20"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="13" t="s">
         <v>8</v>
       </c>
@@ -945,10 +1348,10 @@
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
-      <c r="H5" s="23"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" s="16" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="20"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="13" t="s">
         <v>9</v>
       </c>
@@ -961,10 +1364,10 @@
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
-      <c r="H6" s="23"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" s="16" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="20"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
@@ -977,10 +1380,10 @@
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="23"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="20"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
@@ -995,7 +1398,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="21"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
@@ -1010,7 +1413,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1027,7 +1430,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:8" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="20"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
@@ -1042,7 +1445,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="20"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
@@ -1057,7 +1460,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A13" s="20"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="7" t="s">
         <v>17</v>
       </c>
@@ -1072,7 +1475,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="20"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="7" t="s">
         <v>18</v>
       </c>
@@ -1121,7 +1524,7 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="18" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -1138,7 +1541,7 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="20"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="7" t="s">
         <v>32</v>
       </c>
@@ -1153,7 +1556,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="20"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="7" t="s">
         <v>33</v>
       </c>
@@ -1168,7 +1571,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="20"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="7" t="s">
         <v>34</v>
       </c>
@@ -1183,7 +1586,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="20"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="7" t="s">
         <v>35</v>
       </c>
@@ -1198,7 +1601,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="20"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="7" t="s">
         <v>36</v>
       </c>
@@ -1213,7 +1616,7 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="20"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="7" t="s">
         <v>37</v>
       </c>
@@ -1228,7 +1631,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="20"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="7" t="s">
         <v>38</v>
       </c>
@@ -1243,7 +1646,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="21"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="7" t="s">
         <v>39</v>
       </c>
@@ -1258,7 +1661,7 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="17" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -1275,7 +1678,7 @@
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="18"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="7" t="s">
         <v>25</v>
       </c>
@@ -1290,7 +1693,7 @@
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="18"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="7" t="s">
         <v>26</v>
       </c>
@@ -1305,7 +1708,7 @@
       <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="18"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="7" t="s">
         <v>27</v>
       </c>
@@ -1320,7 +1723,7 @@
       <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="18"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="7" t="s">
         <v>28</v>
       </c>
@@ -1335,7 +1738,7 @@
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="18"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="7" t="s">
         <v>29</v>
       </c>
@@ -1366,10 +1769,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:XDT25"/>
+  <dimension ref="A1:XDT66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1406,7 +1809,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1414,166 +1817,190 @@
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="E2" s="6">
+        <v>43448</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="20"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="20"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="20"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="7" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="E5" s="6"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="20"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="7" t="s">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="19" t="s">
-        <v>51</v>
-      </c>
+      <c r="A7" s="19"/>
       <c r="B7" s="7" t="s">
-        <v>56</v>
+        <v>176</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="21"/>
+      <c r="A8" s="18" t="s">
+        <v>51</v>
+      </c>
       <c r="B8" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="E8" s="6">
+        <v>43448</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="17" t="s">
-        <v>74</v>
-      </c>
+      <c r="A9" s="20"/>
       <c r="B9" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="E9" s="6">
+        <v>43448</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="19" t="s">
-        <v>59</v>
+      <c r="A10" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="6"/>
+        <v>187</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="6">
+        <v>43449</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="36">
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A11" s="20"/>
       <c r="B11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="6"/>
+        <v>188</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="6">
+        <v>43465</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A12" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="7"/>
+        <v>182</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>172</v>
+      </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="6"/>
+      <c r="E12" s="6">
+        <v>43452</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A13" s="18"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="7" t="s">
+        <v>173</v>
+      </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="6"/>
+      <c r="E13" s="6">
+        <v>43452</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="7"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="7" t="s">
+        <v>168</v>
+      </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="6"/>
+      <c r="D14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="6">
+        <v>43452</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="18"/>
+      <c r="A15" s="18" t="s">
+        <v>165</v>
+      </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1582,9 +2009,7 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="18" t="s">
-        <v>61</v>
-      </c>
+      <c r="A16" s="20"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1593,8 +2018,833 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="6">
+        <v>43465</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A18" s="19"/>
+      <c r="B18" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A19" s="19"/>
+      <c r="B19" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="6">
+        <v>43465</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A20" s="19"/>
+      <c r="B20" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="6">
+        <v>43465</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A21" s="19"/>
+      <c r="B21" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A23" s="19"/>
+      <c r="B23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A24" s="19"/>
+      <c r="B24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A25" s="19"/>
+      <c r="B25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A26" s="19"/>
+      <c r="B26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="6">
+        <v>43465</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A27" s="19"/>
+      <c r="B27" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A28" s="19"/>
+      <c r="B28" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A29" s="19"/>
+      <c r="B29" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A30" s="19"/>
+      <c r="B30" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A31" s="19"/>
+      <c r="B31" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A32" s="19"/>
+      <c r="B32" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A33" s="19"/>
+      <c r="B33" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A34" s="19"/>
+      <c r="B34" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A35" s="19"/>
+      <c r="B35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A36" s="19"/>
+      <c r="B36" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="6">
+        <v>43465</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A37" s="19"/>
+      <c r="B37" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="6">
+        <v>43465</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A38" s="19"/>
+      <c r="B38" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="6">
+        <v>43465</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A39" s="19"/>
+      <c r="B39" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="6">
+        <v>43465</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A40" s="19"/>
+      <c r="B40" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A41" s="19"/>
+      <c r="B41" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="6">
+        <v>43465</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" s="2" customFormat="1" ht="39" customHeight="1">
+      <c r="A42" s="19"/>
+      <c r="B42" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A43" s="20"/>
+      <c r="B43" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A44" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="6">
+        <v>43465</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A45" s="19"/>
+      <c r="B45" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="6">
+        <v>43465</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="I45" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="2" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A46" s="19"/>
+      <c r="B46" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A47" s="19"/>
+      <c r="B47" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="6">
+        <v>43465</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A48" s="19"/>
+      <c r="B48" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="6">
+        <v>43465</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A49" s="19"/>
+      <c r="B49" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="6">
+        <v>43465</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A50" s="19"/>
+      <c r="B50" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A51" s="19"/>
+      <c r="B51" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A52" s="19"/>
+      <c r="B52" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A53" s="19"/>
+      <c r="B53" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A54" s="19"/>
+      <c r="B54" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A55" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A56" s="20"/>
+      <c r="B56" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A57" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A58" s="17"/>
+      <c r="B58" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A59" s="17"/>
+      <c r="B59" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A60" s="17"/>
+      <c r="B60" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A61" s="17"/>
+      <c r="B61" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A62" s="17"/>
+      <c r="B62" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A63" s="17"/>
+      <c r="B63" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="11"/>
+    </row>
+    <row r="64" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A64" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A65" s="17"/>
+      <c r="B65" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A66" s="17"/>
+      <c r="B66" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A44:A54"/>
+    <mergeCell ref="A17:A43"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A55:A56"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:XDT42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:B42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="18.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="4" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="3" customWidth="1"/>
+    <col min="8" max="16348" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="39.6" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A2" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A3" s="19"/>
+      <c r="B3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A4" s="19"/>
+      <c r="B4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A6" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A7" s="19"/>
+      <c r="B7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A8" s="19"/>
+      <c r="B8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A9" s="19"/>
+      <c r="B9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A12" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A13" s="19"/>
+      <c r="B13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A14" s="19"/>
+      <c r="B14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A15" s="19"/>
+      <c r="B15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A16" s="19"/>
+      <c r="B16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="6"/>
@@ -1602,10 +2852,10 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="7"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="6"/>
@@ -1613,8 +2863,10 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="7"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="6"/>
@@ -1622,10 +2874,10 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="7"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="6"/>
@@ -1633,8 +2885,10 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="20"/>
-      <c r="B21" s="7"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="6"/>
@@ -1642,10 +2896,10 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="7"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="6"/>
@@ -1653,8 +2907,10 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="18"/>
-      <c r="B23" s="7"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="7" t="s">
+        <v>93</v>
+      </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="6"/>
@@ -1662,40 +2918,801 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="7"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="6"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="11"/>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="18"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="6"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="11"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A26" s="19"/>
+      <c r="B26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A27" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A28" s="17"/>
+      <c r="B28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A29" s="17"/>
+      <c r="B29" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A30" s="17"/>
+      <c r="B30" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A31" s="17"/>
+      <c r="B31" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A32" s="17"/>
+      <c r="B32" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A33" s="17"/>
+      <c r="B33" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A34" s="17"/>
+      <c r="B34" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A35" s="17"/>
+      <c r="B35" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A36" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A37" s="17"/>
+      <c r="B37" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A38" s="17"/>
+      <c r="B38" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A39" s="17"/>
+      <c r="B39" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A40" s="17"/>
+      <c r="B40" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A41" s="17"/>
+      <c r="B41" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A42" s="17"/>
+      <c r="B42" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A20:A21"/>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A12:A26"/>
+    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="A27:A35"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:XDT47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="18.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="4" customWidth="1"/>
+    <col min="4" max="6" width="12.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="3" customWidth="1"/>
+    <col min="8" max="16348" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="39.6" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A2" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A3" s="19"/>
+      <c r="B3" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A4" s="19"/>
+      <c r="B4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A6" s="19"/>
+      <c r="B6" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A7" s="19"/>
+      <c r="B7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A8" s="19"/>
+      <c r="B8" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A9" s="19"/>
+      <c r="B9" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="45" customHeight="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A13" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A14" s="19"/>
+      <c r="B14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A15" s="19"/>
+      <c r="B15" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A16" s="19"/>
+      <c r="B16" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A18" s="19"/>
+      <c r="B18" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A19" s="19"/>
+      <c r="B19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A20" s="19"/>
+      <c r="B20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A21" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A23" s="19"/>
+      <c r="B23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A24" s="19"/>
+      <c r="B24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A25" s="19"/>
+      <c r="B25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A26" s="19"/>
+      <c r="B26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A27" s="19"/>
+      <c r="B27" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A28" s="19"/>
+      <c r="B28" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A29" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A30" s="17"/>
+      <c r="B30" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A31" s="17"/>
+      <c r="B31" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A32" s="17"/>
+      <c r="B32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A33" s="17"/>
+      <c r="B33" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A34" s="17"/>
+      <c r="B34" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A35" s="17"/>
+      <c r="B35" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A36" s="17"/>
+      <c r="B36" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A37" s="17"/>
+      <c r="B37" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A38" s="17"/>
+      <c r="B38" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A39" s="17"/>
+      <c r="B39" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A40" s="17"/>
+      <c r="B40" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A41" s="17"/>
+      <c r="B41" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A42" s="17"/>
+      <c r="B42" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A43" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A44" s="17"/>
+      <c r="B44" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A45" s="17"/>
+      <c r="B45" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A46" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A47" s="17"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="A29:A42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A47"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DOC/开发计划/DMS开发计划-12.12-APP.xlsx
+++ b/DOC/开发计划/DMS开发计划-12.12-APP.xlsx
@@ -1772,7 +1772,7 @@
   <dimension ref="A1:XDT66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2610,16 +2610,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A55:A56"/>
     <mergeCell ref="A44:A54"/>
     <mergeCell ref="A17:A43"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A55:A56"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3705,14 +3705,15 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A46:A47"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="A13:A20"/>
     <mergeCell ref="A21:A28"/>
     <mergeCell ref="A29:A42"/>
     <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A46:A47"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>